--- a/manager/datatesting.xlsx
+++ b/manager/datatesting.xlsx
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="T12" s="2" t="n">
-        <v>45874</v>
+        <v>45494</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
